--- a/src/main/resources/operator/AssignOperator/assign.xlsx
+++ b/src/main/resources/operator/AssignOperator/assign.xlsx
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="G7 E16"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
